--- a/NLP_FORCE/NaturaLP_ANSWER_FOR_CHECKING.xlsx
+++ b/NLP_FORCE/NaturaLP_ANSWER_FOR_CHECKING.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="168">
   <si>
     <t>id</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
   </si>
   <si>
-    <t>Блогер-гурман поделился рецептом приготовления необычного блюда из местных продуктов.</t>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях.</t>
   </si>
   <si>
     <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
@@ -445,82 +445,79 @@
     <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
   </si>
   <si>
+    <t>Шоубиз</t>
+  </si>
+  <si>
     <t>Блоги</t>
   </si>
   <si>
     <t>Новости и СМИ</t>
   </si>
   <si>
+    <t>Право</t>
+  </si>
+  <si>
+    <t>Финансы</t>
+  </si>
+  <si>
     <t>Искусство</t>
   </si>
   <si>
-    <t>Развлечения и юмор</t>
+    <t>Музыка</t>
+  </si>
+  <si>
+    <t>Технологии</t>
+  </si>
+  <si>
+    <t>Бизнес и стартапы</t>
+  </si>
+  <si>
+    <t>Экономика</t>
+  </si>
+  <si>
+    <t>Маркетинг, PR, реклама</t>
+  </si>
+  <si>
+    <t>Картинки и фото</t>
+  </si>
+  <si>
+    <t>Путешествия</t>
+  </si>
+  <si>
+    <t>Дизайн</t>
   </si>
   <si>
     <t>Видео и фильмы</t>
   </si>
   <si>
+    <t>Мода и красота</t>
+  </si>
+  <si>
+    <t>Психология</t>
+  </si>
+  <si>
+    <t>Образование и познавательное</t>
+  </si>
+  <si>
+    <t>Политика</t>
+  </si>
+  <si>
+    <t>Игры</t>
+  </si>
+  <si>
     <t>Спорт</t>
   </si>
   <si>
-    <t>Технологии</t>
-  </si>
-  <si>
-    <t>Бизнес и стартапы</t>
-  </si>
-  <si>
-    <t>Экономика</t>
-  </si>
-  <si>
-    <t>Путешествия</t>
-  </si>
-  <si>
-    <t>Дизайн</t>
-  </si>
-  <si>
-    <t>Игры</t>
-  </si>
-  <si>
-    <t>Мода и красота</t>
-  </si>
-  <si>
-    <t>Маркетинг, PR, реклама</t>
-  </si>
-  <si>
-    <t>Психология</t>
-  </si>
-  <si>
-    <t>Образование и познавательное</t>
-  </si>
-  <si>
-    <t>Право</t>
-  </si>
-  <si>
-    <t>Политика</t>
-  </si>
-  <si>
-    <t>Картинки и фото</t>
-  </si>
-  <si>
     <t>Здоровье и медицина</t>
   </si>
   <si>
     <t>Софт и приложения</t>
   </si>
   <si>
-    <t>Музыка</t>
-  </si>
-  <si>
     <t>Еда и кулинария</t>
   </si>
   <si>
-    <t>Шоубиз</t>
-  </si>
-  <si>
     <t>Цитаты</t>
-  </si>
-  <si>
-    <t>Рукоделие</t>
   </si>
 </sst>
 </file>
@@ -938,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -952,7 +949,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -966,7 +963,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -980,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -994,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1008,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1022,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1036,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1050,7 +1047,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1064,7 +1061,7 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1078,7 +1075,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1092,7 +1089,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1106,7 +1103,7 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1120,7 +1117,7 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1134,7 +1131,7 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1148,7 +1145,7 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1162,7 +1159,7 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1176,7 +1173,7 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1190,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1204,7 +1201,7 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1218,7 +1215,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1232,7 +1229,7 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1246,7 +1243,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1260,7 +1257,7 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1274,7 +1271,7 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1288,7 +1285,7 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1302,7 +1299,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1316,7 +1313,7 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1330,7 +1327,7 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1344,7 +1341,7 @@
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1358,7 +1355,7 @@
         <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1372,7 +1369,7 @@
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1386,7 +1383,7 @@
         <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1400,7 +1397,7 @@
         <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1414,7 +1411,7 @@
         <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1428,7 +1425,7 @@
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1442,7 +1439,7 @@
         <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1456,7 +1453,7 @@
         <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1470,7 +1467,7 @@
         <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1484,7 +1481,7 @@
         <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1498,7 +1495,7 @@
         <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1512,7 +1509,7 @@
         <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1526,7 +1523,7 @@
         <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1540,7 +1537,7 @@
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1554,7 +1551,7 @@
         <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1568,7 +1565,7 @@
         <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1582,7 +1579,7 @@
         <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1596,7 +1593,7 @@
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1610,7 +1607,7 @@
         <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1624,7 +1621,7 @@
         <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1638,7 +1635,7 @@
         <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1652,7 +1649,7 @@
         <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1666,7 +1663,7 @@
         <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1680,7 +1677,7 @@
         <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1694,7 +1691,7 @@
         <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1708,7 +1705,7 @@
         <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1722,7 +1719,7 @@
         <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1736,7 +1733,7 @@
         <v>62</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1750,7 +1747,7 @@
         <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1764,7 +1761,7 @@
         <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1778,7 +1775,7 @@
         <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1792,7 +1789,7 @@
         <v>66</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1806,7 +1803,7 @@
         <v>67</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1820,7 +1817,7 @@
         <v>68</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1834,7 +1831,7 @@
         <v>69</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1848,7 +1845,7 @@
         <v>70</v>
       </c>
       <c r="D69" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1862,7 +1859,7 @@
         <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1876,7 +1873,7 @@
         <v>72</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1890,7 +1887,7 @@
         <v>73</v>
       </c>
       <c r="D72" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1904,7 +1901,7 @@
         <v>74</v>
       </c>
       <c r="D73" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1918,7 +1915,7 @@
         <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1932,7 +1929,7 @@
         <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1946,7 +1943,7 @@
         <v>77</v>
       </c>
       <c r="D76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1960,7 +1957,7 @@
         <v>78</v>
       </c>
       <c r="D77" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1974,7 +1971,7 @@
         <v>79</v>
       </c>
       <c r="D78" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1988,7 +1985,7 @@
         <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2002,7 +1999,7 @@
         <v>81</v>
       </c>
       <c r="D80" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2016,7 +2013,7 @@
         <v>82</v>
       </c>
       <c r="D81" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2030,7 +2027,7 @@
         <v>83</v>
       </c>
       <c r="D82" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2044,7 +2041,7 @@
         <v>84</v>
       </c>
       <c r="D83" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2058,7 +2055,7 @@
         <v>85</v>
       </c>
       <c r="D84" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2072,7 +2069,7 @@
         <v>86</v>
       </c>
       <c r="D85" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2086,7 +2083,7 @@
         <v>87</v>
       </c>
       <c r="D86" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2100,7 +2097,7 @@
         <v>88</v>
       </c>
       <c r="D87" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2114,7 +2111,7 @@
         <v>89</v>
       </c>
       <c r="D88" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2128,7 +2125,7 @@
         <v>90</v>
       </c>
       <c r="D89" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2142,7 +2139,7 @@
         <v>91</v>
       </c>
       <c r="D90" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2156,7 +2153,7 @@
         <v>92</v>
       </c>
       <c r="D91" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2170,7 +2167,7 @@
         <v>93</v>
       </c>
       <c r="D92" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2184,7 +2181,7 @@
         <v>94</v>
       </c>
       <c r="D93" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2198,7 +2195,7 @@
         <v>95</v>
       </c>
       <c r="D94" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2212,7 +2209,7 @@
         <v>96</v>
       </c>
       <c r="D95" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2226,7 +2223,7 @@
         <v>97</v>
       </c>
       <c r="D96" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2240,7 +2237,7 @@
         <v>98</v>
       </c>
       <c r="D97" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2254,7 +2251,7 @@
         <v>99</v>
       </c>
       <c r="D98" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2268,7 +2265,7 @@
         <v>100</v>
       </c>
       <c r="D99" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2282,7 +2279,7 @@
         <v>101</v>
       </c>
       <c r="D100" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2296,7 +2293,7 @@
         <v>102</v>
       </c>
       <c r="D101" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2310,7 +2307,7 @@
         <v>103</v>
       </c>
       <c r="D102" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2324,7 +2321,7 @@
         <v>104</v>
       </c>
       <c r="D103" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2338,7 +2335,7 @@
         <v>105</v>
       </c>
       <c r="D104" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2352,7 +2349,7 @@
         <v>106</v>
       </c>
       <c r="D105" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2366,7 +2363,7 @@
         <v>107</v>
       </c>
       <c r="D106" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2380,7 +2377,7 @@
         <v>108</v>
       </c>
       <c r="D107" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2394,7 +2391,7 @@
         <v>109</v>
       </c>
       <c r="D108" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2408,7 +2405,7 @@
         <v>110</v>
       </c>
       <c r="D109" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2422,7 +2419,7 @@
         <v>111</v>
       </c>
       <c r="D110" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2436,7 +2433,7 @@
         <v>112</v>
       </c>
       <c r="D111" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2450,7 +2447,7 @@
         <v>113</v>
       </c>
       <c r="D112" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2464,7 +2461,7 @@
         <v>114</v>
       </c>
       <c r="D113" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2478,7 +2475,7 @@
         <v>115</v>
       </c>
       <c r="D114" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2492,7 +2489,7 @@
         <v>116</v>
       </c>
       <c r="D115" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2506,7 +2503,7 @@
         <v>117</v>
       </c>
       <c r="D116" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2520,7 +2517,7 @@
         <v>118</v>
       </c>
       <c r="D117" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2534,7 +2531,7 @@
         <v>119</v>
       </c>
       <c r="D118" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2548,7 +2545,7 @@
         <v>120</v>
       </c>
       <c r="D119" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2562,7 +2559,7 @@
         <v>121</v>
       </c>
       <c r="D120" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2576,7 +2573,7 @@
         <v>122</v>
       </c>
       <c r="D121" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2590,7 +2587,7 @@
         <v>123</v>
       </c>
       <c r="D122" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2604,7 +2601,7 @@
         <v>124</v>
       </c>
       <c r="D123" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2632,7 +2629,7 @@
         <v>126</v>
       </c>
       <c r="D125" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2660,7 +2657,7 @@
         <v>128</v>
       </c>
       <c r="D127" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2674,7 +2671,7 @@
         <v>129</v>
       </c>
       <c r="D128" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2688,7 +2685,7 @@
         <v>130</v>
       </c>
       <c r="D129" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2702,7 +2699,7 @@
         <v>131</v>
       </c>
       <c r="D130" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2716,7 +2713,7 @@
         <v>132</v>
       </c>
       <c r="D131" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2730,7 +2727,7 @@
         <v>133</v>
       </c>
       <c r="D132" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2744,7 +2741,7 @@
         <v>134</v>
       </c>
       <c r="D133" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2758,7 +2755,7 @@
         <v>135</v>
       </c>
       <c r="D134" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2772,7 +2769,7 @@
         <v>136</v>
       </c>
       <c r="D135" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2786,7 +2783,7 @@
         <v>137</v>
       </c>
       <c r="D136" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2800,7 +2797,7 @@
         <v>138</v>
       </c>
       <c r="D137" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2814,7 +2811,7 @@
         <v>139</v>
       </c>
       <c r="D138" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2828,7 +2825,7 @@
         <v>140</v>
       </c>
       <c r="D139" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2842,7 +2839,7 @@
         <v>141</v>
       </c>
       <c r="D140" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2856,7 +2853,7 @@
         <v>142</v>
       </c>
       <c r="D141" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
